--- a/biology/Médecine/Pochite/Pochite.xlsx
+++ b/biology/Médecine/Pochite/Pochite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pochite est une inflammation de la poche constituée après une anastomose iléo-anale.
 On réalise souvent une coloprotectomie totale avec confection d'un réservoir iléo-anal chez les patients atteints d'une maladie inflammatoire chronique de l'intestin comme la rectocolite hémorragique et la maladie de Crohn, lorsque le suivi médical est insuffisant.
-La pochite survient dans l'année qui suit l'opération. Elle atteint près de 10 à 40 % des patients opérés[1], certains auteurs parlent de 50 %[2]. Elle se déclare par des douleurs abdominales, des diarrhées voire des saignements.
+La pochite survient dans l'année qui suit l'opération. Elle atteint près de 10 à 40 % des patients opérés, certains auteurs parlent de 50 %. Elle se déclare par des douleurs abdominales, des diarrhées voire des saignements.
 Le traitement consiste en une antibiothérapie.
 </t>
         </is>
@@ -514,9 +526,11 @@
           <t>La pochite chronique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il faut distinguer la forme aiguë traitée par antibiothérapie et la forme chronique persistant au-delà de quatre semaines malgré les antibiotiques. Cette forme concerne 15 % des patients. Les antibiotiques, les corticoïdes, puis les biothérapies (essentiellement les anti-TNF) peuvent être prescrits pour traiter la pochite chronique[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il faut distinguer la forme aiguë traitée par antibiothérapie et la forme chronique persistant au-delà de quatre semaines malgré les antibiotiques. Cette forme concerne 15 % des patients. Les antibiotiques, les corticoïdes, puis les biothérapies (essentiellement les anti-TNF) peuvent être prescrits pour traiter la pochite chronique.
 </t>
         </is>
       </c>
